--- a/Registration.xlsx
+++ b/Registration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Automatic Certificate Generation using Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Books\Projects\Automatic Certificate Generation using Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A417DE-3E82-4E37-B440-D7F604CE7CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C28BAB-6FC1-4981-AFEA-658AA3B6F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE1892B3-7EE1-4702-A5CA-B4BD99D8201A}"/>
   </bookViews>
@@ -45,18 +45,6 @@
     <t>SNO</t>
   </si>
   <si>
-    <t>Sowmiya B</t>
-  </si>
-  <si>
-    <t>Kavitha B</t>
-  </si>
-  <si>
-    <t>Sangavi G</t>
-  </si>
-  <si>
-    <t>Reena R</t>
-  </si>
-  <si>
     <t>Data Analysis</t>
   </si>
   <si>
@@ -67,6 +55,18 @@
   </si>
   <si>
     <t>MATLAB Onramp</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
